--- a/server/app/uploads/addUser/teacher.xlsx
+++ b/server/app/uploads/addUser/teacher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22956" windowHeight="9936"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
   <si>
     <t>user</t>
   </si>
@@ -357,6 +357,34 @@
   </si>
   <si>
     <t>10000013</t>
+  </si>
+  <si>
+    <t>卞旺阳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000014</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>410521000000000110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>410521000000000112</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卞旺阳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -716,22 +744,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.875" style="1"/>
-    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="13.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1179,6 +1207,70 @@
         <v>40</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1">
+        <v>111</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1">
+        <v>15800014611</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1">
+        <v>111</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15800014612</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>56</v>
       </c>
     </row>
